--- a/StructureDefinition-openelis-diagnostic-report.xlsx
+++ b/StructureDefinition-openelis-diagnostic-report.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://i-tech-uw.github.io/empty-ig/StructureDefinition/openelis-diagnostic-report</t>
+    <t>https://intellisoft-consulting.github.io/FHIR-training-ig-template/StructureDefinition/openelis-diagnostic-report</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T06:30:48+00:00</t>
+    <t>2022-05-13T07:34:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>I-TECH-UW</t>
+    <t>Intelisoft</t>
   </si>
   <si>
     <t>Contact</t>
